--- a/data/pca/factorExposure/factorExposure_2019-06-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-06-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1186916208238558</v>
+        <v>0.07870139717791663</v>
       </c>
       <c r="C2">
-        <v>-0.01851578409999822</v>
+        <v>0.0103991926752736</v>
       </c>
       <c r="D2">
-        <v>0.009613407763186895</v>
+        <v>0.03094063785411048</v>
       </c>
       <c r="E2">
-        <v>-0.1120990892435654</v>
+        <v>0.1378765526515936</v>
       </c>
       <c r="F2">
-        <v>-0.05171579610910849</v>
+        <v>0.01238175555962069</v>
       </c>
       <c r="G2">
-        <v>0.08734819493857529</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.07578641926483855</v>
+      </c>
+      <c r="H2">
+        <v>0.08284654326261498</v>
+      </c>
+      <c r="I2">
+        <v>0.07700082274342929</v>
+      </c>
+      <c r="J2">
+        <v>0.04022535907619491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2082038651302331</v>
+        <v>0.1628775264605601</v>
       </c>
       <c r="C3">
-        <v>0.06849148832469142</v>
+        <v>0.07693523767379772</v>
       </c>
       <c r="D3">
-        <v>-0.1004971025236989</v>
+        <v>-0.05555675987246941</v>
       </c>
       <c r="E3">
-        <v>-0.3090967034970103</v>
+        <v>0.364287170975381</v>
       </c>
       <c r="F3">
-        <v>0.07349847627277867</v>
+        <v>0.1125805160616115</v>
       </c>
       <c r="G3">
-        <v>0.3194512773229278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.01953906482279173</v>
+      </c>
+      <c r="H3">
+        <v>0.2671270715972062</v>
+      </c>
+      <c r="I3">
+        <v>0.162652994455712</v>
+      </c>
+      <c r="J3">
+        <v>-0.06074138600531705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09842403344375247</v>
+        <v>0.07360437160290172</v>
       </c>
       <c r="C4">
-        <v>0.01323119252330172</v>
+        <v>0.02802595138083744</v>
       </c>
       <c r="D4">
-        <v>-0.007052894308174661</v>
+        <v>0.0206461376878039</v>
       </c>
       <c r="E4">
-        <v>-0.09582552805781805</v>
+        <v>0.08816986430251536</v>
       </c>
       <c r="F4">
-        <v>-0.02262448345515596</v>
+        <v>0.05315693430347357</v>
       </c>
       <c r="G4">
-        <v>0.02752823860558931</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03363347840609065</v>
+      </c>
+      <c r="H4">
+        <v>0.03627699170488106</v>
+      </c>
+      <c r="I4">
+        <v>0.01347905242898454</v>
+      </c>
+      <c r="J4">
+        <v>-0.04383156455483839</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01018270147361271</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.003532214691733745</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0006854076487738719</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005720298199220076</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.003053058609113126</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01317323675283212</v>
+      </c>
+      <c r="H6">
+        <v>0.005701801801138734</v>
+      </c>
+      <c r="I6">
+        <v>0.003259910808974359</v>
+      </c>
+      <c r="J6">
+        <v>-0.001052484454128477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04269114129813231</v>
+        <v>0.03540572202886139</v>
       </c>
       <c r="C7">
-        <v>0.0009342759443671171</v>
+        <v>0.01410731592242275</v>
       </c>
       <c r="D7">
-        <v>0.02087285365640871</v>
+        <v>0.01516006695939243</v>
       </c>
       <c r="E7">
-        <v>-0.07004750063038684</v>
+        <v>0.05851189909498284</v>
       </c>
       <c r="F7">
-        <v>0.05835017071090624</v>
+        <v>0.03057048014010333</v>
       </c>
       <c r="G7">
-        <v>0.01862074952257559</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01667956002115697</v>
+      </c>
+      <c r="H7">
+        <v>0.04287089630545582</v>
+      </c>
+      <c r="I7">
+        <v>-0.005709758369922616</v>
+      </c>
+      <c r="J7">
+        <v>-0.03266845202431796</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04083710037488315</v>
+        <v>0.03222294910949042</v>
       </c>
       <c r="C8">
-        <v>0.03024679863295527</v>
+        <v>0.0325286324021011</v>
       </c>
       <c r="D8">
-        <v>-0.01190334746890031</v>
+        <v>0.005111653666130565</v>
       </c>
       <c r="E8">
-        <v>-0.06920612197595165</v>
+        <v>0.07757046745307537</v>
       </c>
       <c r="F8">
-        <v>0.01604241025487162</v>
+        <v>0.04733725856113466</v>
       </c>
       <c r="G8">
-        <v>0.05042093980532672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.002269535206394405</v>
+      </c>
+      <c r="H8">
+        <v>0.05651607187003093</v>
+      </c>
+      <c r="I8">
+        <v>0.03545413880841698</v>
+      </c>
+      <c r="J8">
+        <v>-0.02406068827146481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08639878670520271</v>
+        <v>0.06359002370675883</v>
       </c>
       <c r="C9">
-        <v>0.01444800122320623</v>
+        <v>0.02686176871047887</v>
       </c>
       <c r="D9">
-        <v>0.008029799901341108</v>
+        <v>0.0217546223559283</v>
       </c>
       <c r="E9">
-        <v>-0.08502423886800142</v>
+        <v>0.08533846610990269</v>
       </c>
       <c r="F9">
-        <v>-0.01089594413824854</v>
+        <v>0.05908671426956442</v>
       </c>
       <c r="G9">
-        <v>0.02923318709085921</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.02514780132417174</v>
+      </c>
+      <c r="H9">
+        <v>0.03317470955489577</v>
+      </c>
+      <c r="I9">
+        <v>0.01031722229809673</v>
+      </c>
+      <c r="J9">
+        <v>-0.01218729525488502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.02212287746800835</v>
+        <v>0.003086466168228553</v>
       </c>
       <c r="C10">
-        <v>-0.1611539251809093</v>
+        <v>-0.1599753280382012</v>
       </c>
       <c r="D10">
-        <v>-0.007370653481701483</v>
+        <v>-0.01146723860300601</v>
       </c>
       <c r="E10">
-        <v>-0.0301457327277257</v>
+        <v>0.0474841510903168</v>
       </c>
       <c r="F10">
-        <v>0.01204698744767521</v>
+        <v>0.0007402211803765652</v>
       </c>
       <c r="G10">
-        <v>-0.01558607051745518</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.01062213564044195</v>
+      </c>
+      <c r="H10">
+        <v>-0.01926683377010774</v>
+      </c>
+      <c r="I10">
+        <v>0.1106948130765294</v>
+      </c>
+      <c r="J10">
+        <v>-0.06015748334433876</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05980321365622199</v>
+        <v>0.05108976878939155</v>
       </c>
       <c r="C11">
-        <v>-0.003460137728435883</v>
+        <v>0.0152822096879212</v>
       </c>
       <c r="D11">
-        <v>-0.01592426728669599</v>
+        <v>0.004116250018574161</v>
       </c>
       <c r="E11">
-        <v>-0.03938798443758078</v>
+        <v>0.04830600971848115</v>
       </c>
       <c r="F11">
-        <v>0.007354637755684138</v>
+        <v>0.002739874704346245</v>
       </c>
       <c r="G11">
-        <v>-0.01081278768808683</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.001990928779029544</v>
+      </c>
+      <c r="H11">
+        <v>0.0190940859454408</v>
+      </c>
+      <c r="I11">
+        <v>-0.01237859158697992</v>
+      </c>
+      <c r="J11">
+        <v>0.002211773558004211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.05028777947044406</v>
+        <v>0.04914446309640128</v>
       </c>
       <c r="C12">
-        <v>0.001417270788775318</v>
+        <v>0.01632219090473958</v>
       </c>
       <c r="D12">
-        <v>-0.008237760560093432</v>
+        <v>0.007236800893908689</v>
       </c>
       <c r="E12">
-        <v>-0.02429026026755624</v>
+        <v>0.02500043248382259</v>
       </c>
       <c r="F12">
-        <v>0.01139101343888024</v>
+        <v>0.01590017106421278</v>
       </c>
       <c r="G12">
-        <v>0.001203124414415383</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.001779591401694789</v>
+      </c>
+      <c r="H12">
+        <v>0.006675117999280361</v>
+      </c>
+      <c r="I12">
+        <v>-0.0190976111075609</v>
+      </c>
+      <c r="J12">
+        <v>0.003190149084529388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.05845778313300596</v>
+        <v>0.04003821528384419</v>
       </c>
       <c r="C13">
-        <v>0.01156342777295715</v>
+        <v>0.01762637468926941</v>
       </c>
       <c r="D13">
-        <v>-0.03035367156410898</v>
+        <v>0.00214882659152241</v>
       </c>
       <c r="E13">
-        <v>-0.1080773980121469</v>
+        <v>0.1050612967708289</v>
       </c>
       <c r="F13">
-        <v>0.0152930848096478</v>
+        <v>0.009215042545747964</v>
       </c>
       <c r="G13">
-        <v>0.02525741871223852</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.0009120235497032969</v>
+      </c>
+      <c r="H13">
+        <v>0.05639249885750858</v>
+      </c>
+      <c r="I13">
+        <v>0.03222272632917475</v>
+      </c>
+      <c r="J13">
+        <v>0.0167540980027338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03804063540032487</v>
+        <v>0.02902860382644724</v>
       </c>
       <c r="C14">
-        <v>0.003286168469371402</v>
+        <v>0.01206333836722322</v>
       </c>
       <c r="D14">
-        <v>0.01405852362074717</v>
+        <v>0.02007614388292777</v>
       </c>
       <c r="E14">
-        <v>-0.0241337637773811</v>
+        <v>0.03778064955872019</v>
       </c>
       <c r="F14">
-        <v>0.006581094265343108</v>
+        <v>0.02096478770961981</v>
       </c>
       <c r="G14">
-        <v>0.03549060238720367</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.01331729738339845</v>
+      </c>
+      <c r="H14">
+        <v>0.0625248962213628</v>
+      </c>
+      <c r="I14">
+        <v>0.02070500833153523</v>
+      </c>
+      <c r="J14">
+        <v>-0.01207822810160643</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.05244250762179294</v>
+        <v>0.04357051415438506</v>
       </c>
       <c r="C16">
-        <v>0.01490001388776473</v>
+        <v>0.0246456260112393</v>
       </c>
       <c r="D16">
-        <v>-0.02607215886160517</v>
+        <v>-0.002565431927611232</v>
       </c>
       <c r="E16">
-        <v>-0.03721198502510974</v>
+        <v>0.04526916242049369</v>
       </c>
       <c r="F16">
-        <v>0.01105072374963365</v>
+        <v>0.006682588553115241</v>
       </c>
       <c r="G16">
-        <v>-0.006401711208345563</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.004574985345325901</v>
+      </c>
+      <c r="H16">
+        <v>0.01837422887579194</v>
+      </c>
+      <c r="I16">
+        <v>-0.01475108342951833</v>
+      </c>
+      <c r="J16">
+        <v>-0.00269368401527558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.04701533649913898</v>
+        <v>0.04792348796715212</v>
       </c>
       <c r="C19">
-        <v>0.02516429448672212</v>
+        <v>0.02943267359493024</v>
       </c>
       <c r="D19">
-        <v>-0.01596558151361433</v>
+        <v>0.002565947558889322</v>
       </c>
       <c r="E19">
-        <v>-0.07777873406407536</v>
+        <v>0.09431491061909236</v>
       </c>
       <c r="F19">
-        <v>0.0209753999050945</v>
+        <v>0.03357748108367508</v>
       </c>
       <c r="G19">
-        <v>0.0500105482281287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.007991259521082596</v>
+      </c>
+      <c r="H19">
+        <v>0.07653657962392704</v>
+      </c>
+      <c r="I19">
+        <v>0.06797168530453764</v>
+      </c>
+      <c r="J19">
+        <v>0.002078241316451057</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03510371994233674</v>
+        <v>0.01871554824741342</v>
       </c>
       <c r="C20">
-        <v>0.02884551001533409</v>
+        <v>0.03019655461274426</v>
       </c>
       <c r="D20">
-        <v>-0.008909156432719665</v>
+        <v>0.009926285204291403</v>
       </c>
       <c r="E20">
-        <v>-0.06895956507525118</v>
+        <v>0.07148399442106798</v>
       </c>
       <c r="F20">
-        <v>0.02809996575057747</v>
+        <v>0.03486282726900912</v>
       </c>
       <c r="G20">
-        <v>0.04656297975605109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.009388949972464165</v>
+      </c>
+      <c r="H20">
+        <v>0.07628232271286305</v>
+      </c>
+      <c r="I20">
+        <v>0.0182555468308328</v>
+      </c>
+      <c r="J20">
+        <v>-0.02418889165787636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.03706689531455598</v>
+        <v>0.01759544054533099</v>
       </c>
       <c r="C21">
-        <v>0.01067570712097487</v>
+        <v>0.02107670086234465</v>
       </c>
       <c r="D21">
-        <v>-0.02556374029510001</v>
+        <v>-0.01129494281468494</v>
       </c>
       <c r="E21">
-        <v>-0.09011310529090659</v>
+        <v>0.08207511075472124</v>
       </c>
       <c r="F21">
-        <v>-0.008825150997516757</v>
+        <v>0.02962112304935185</v>
       </c>
       <c r="G21">
-        <v>0.03238366349675657</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.01106490953334952</v>
+      </c>
+      <c r="H21">
+        <v>0.04758722067252402</v>
+      </c>
+      <c r="I21">
+        <v>0.007665100909199515</v>
+      </c>
+      <c r="J21">
+        <v>0.02564899175378264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.04732415511208817</v>
+        <v>0.0415422807267803</v>
       </c>
       <c r="C24">
-        <v>0.008335388648919067</v>
+        <v>0.01420572443897209</v>
       </c>
       <c r="D24">
-        <v>-0.01443895750894952</v>
+        <v>0.003981824696800534</v>
       </c>
       <c r="E24">
-        <v>-0.05090576096792232</v>
+        <v>0.04847720883731134</v>
       </c>
       <c r="F24">
-        <v>0.01343826532216312</v>
+        <v>0.007404484733985515</v>
       </c>
       <c r="G24">
-        <v>-0.01032738914788361</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01119223128753253</v>
+      </c>
+      <c r="H24">
+        <v>0.01546938944792811</v>
+      </c>
+      <c r="I24">
+        <v>-0.01072920573159889</v>
+      </c>
+      <c r="J24">
+        <v>-0.003122684205004185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.05104816509725928</v>
+        <v>0.0448928794959497</v>
       </c>
       <c r="C25">
-        <v>-0.00251824345549146</v>
+        <v>0.01429678640391337</v>
       </c>
       <c r="D25">
-        <v>-0.01424369467069986</v>
+        <v>0.00266021826319138</v>
       </c>
       <c r="E25">
-        <v>-0.03780822236685625</v>
+        <v>0.04791618182223732</v>
       </c>
       <c r="F25">
-        <v>0.009993096369610929</v>
+        <v>0.01050938401610058</v>
       </c>
       <c r="G25">
-        <v>-0.01436181290518333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.00545998467209819</v>
+      </c>
+      <c r="H25">
+        <v>0.008972145638387942</v>
+      </c>
+      <c r="I25">
+        <v>-0.01225782536854512</v>
+      </c>
+      <c r="J25">
+        <v>0.006930481890316658</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.001181833061186211</v>
+        <v>0.008470117270298914</v>
       </c>
       <c r="C26">
-        <v>0.01509986846908088</v>
+        <v>0.01580614673465599</v>
       </c>
       <c r="D26">
-        <v>-0.00288607931985072</v>
+        <v>-0.006584314151724547</v>
       </c>
       <c r="E26">
-        <v>-0.05664787591023549</v>
+        <v>0.05979532813688898</v>
       </c>
       <c r="F26">
-        <v>-0.002840124185915312</v>
+        <v>1.367685523577792e-05</v>
       </c>
       <c r="G26">
-        <v>0.01401659213459131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.00506422307887546</v>
+      </c>
+      <c r="H26">
+        <v>0.0373859589481231</v>
+      </c>
+      <c r="I26">
+        <v>-0.001323088058216039</v>
+      </c>
+      <c r="J26">
+        <v>-0.01452126514221975</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1082820592220192</v>
+        <v>0.08969568524733387</v>
       </c>
       <c r="C27">
-        <v>-0.0007944831814242955</v>
+        <v>0.01451179652568279</v>
       </c>
       <c r="D27">
-        <v>0.001715055800958095</v>
+        <v>0.02748961667850334</v>
       </c>
       <c r="E27">
-        <v>-0.1100303774966485</v>
+        <v>0.0868083375596501</v>
       </c>
       <c r="F27">
-        <v>0.02499927952116762</v>
+        <v>0.04403913578862673</v>
       </c>
       <c r="G27">
-        <v>-0.01962373899701363</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.003473724469083164</v>
+      </c>
+      <c r="H27">
+        <v>0.009002631828442378</v>
+      </c>
+      <c r="I27">
+        <v>-0.002886990910931017</v>
+      </c>
+      <c r="J27">
+        <v>-0.0190417696428647</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.02804890804435799</v>
+        <v>0.009133924588633529</v>
       </c>
       <c r="C28">
-        <v>-0.2343000290868845</v>
+        <v>-0.2301867716879754</v>
       </c>
       <c r="D28">
-        <v>-0.02000529256066284</v>
+        <v>-0.01779468850240857</v>
       </c>
       <c r="E28">
-        <v>-0.009816123648547812</v>
+        <v>0.03672337191603318</v>
       </c>
       <c r="F28">
-        <v>0.006705295443055789</v>
+        <v>-0.003065037116080111</v>
       </c>
       <c r="G28">
-        <v>-0.04513068643043303</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01382265340910168</v>
+      </c>
+      <c r="H28">
+        <v>-0.03915142973966455</v>
+      </c>
+      <c r="I28">
+        <v>0.1463908669212525</v>
+      </c>
+      <c r="J28">
+        <v>-0.08880309204355379</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.02042431100367307</v>
+        <v>0.01977629377339778</v>
       </c>
       <c r="C29">
-        <v>0.01462027145453223</v>
+        <v>0.01787711566006599</v>
       </c>
       <c r="D29">
-        <v>0.01189795440057087</v>
+        <v>0.01641355691576572</v>
       </c>
       <c r="E29">
-        <v>-0.04168394249067461</v>
+        <v>0.03693681972606405</v>
       </c>
       <c r="F29">
-        <v>-0.001545646120869468</v>
+        <v>0.03144027896863549</v>
       </c>
       <c r="G29">
-        <v>0.03979058130152658</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.01787971877124312</v>
+      </c>
+      <c r="H29">
+        <v>0.06133398916143048</v>
+      </c>
+      <c r="I29">
+        <v>0.008392024254311879</v>
+      </c>
+      <c r="J29">
+        <v>-0.01608127259210753</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1050686286636284</v>
+        <v>0.1037773731680047</v>
       </c>
       <c r="C30">
-        <v>-0.004152091993538514</v>
+        <v>0.02501636157024988</v>
       </c>
       <c r="D30">
-        <v>-0.009228666018381189</v>
+        <v>0.02631575116730846</v>
       </c>
       <c r="E30">
-        <v>-0.1264870915982609</v>
+        <v>0.1147450610448925</v>
       </c>
       <c r="F30">
-        <v>0.02879552261020978</v>
+        <v>0.01754541382371701</v>
       </c>
       <c r="G30">
-        <v>-0.08487773247124977</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.02798278739760927</v>
+      </c>
+      <c r="H30">
+        <v>0.01004122741061746</v>
+      </c>
+      <c r="I30">
+        <v>-0.02775373719935856</v>
+      </c>
+      <c r="J30">
+        <v>0.01809985252612011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05622883357077434</v>
+        <v>0.05734206915238831</v>
       </c>
       <c r="C31">
-        <v>0.008496913447092398</v>
+        <v>0.01473630387713272</v>
       </c>
       <c r="D31">
-        <v>0.01517439349430597</v>
+        <v>0.01429865398685372</v>
       </c>
       <c r="E31">
-        <v>-0.002149980428728476</v>
+        <v>0.01779831776238149</v>
       </c>
       <c r="F31">
-        <v>-0.01673825816149285</v>
+        <v>-0.01527047309188215</v>
       </c>
       <c r="G31">
-        <v>0.02012385708190824</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.03656349156198947</v>
+      </c>
+      <c r="H31">
+        <v>0.05033935100047215</v>
+      </c>
+      <c r="I31">
+        <v>0.01529556180360382</v>
+      </c>
+      <c r="J31">
+        <v>-0.01693076682421892</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.06658006277972497</v>
+        <v>0.04829526631773807</v>
       </c>
       <c r="C32">
-        <v>0.01559732537625616</v>
+        <v>0.04014508677931397</v>
       </c>
       <c r="D32">
-        <v>-0.009718586887066862</v>
+        <v>0.01501791206659917</v>
       </c>
       <c r="E32">
-        <v>-0.1097076451488758</v>
+        <v>0.0997856779116664</v>
       </c>
       <c r="F32">
-        <v>0.05126603699748931</v>
+        <v>0.04047307339458977</v>
       </c>
       <c r="G32">
-        <v>0.01735685704231255</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01947864543935961</v>
+      </c>
+      <c r="H32">
+        <v>0.06037657795872759</v>
+      </c>
+      <c r="I32">
+        <v>0.03482230507275172</v>
+      </c>
+      <c r="J32">
+        <v>0.01911198682494931</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.06883656640081763</v>
+        <v>0.05950734002693735</v>
       </c>
       <c r="C33">
-        <v>0.02123840436212959</v>
+        <v>0.03758069814201829</v>
       </c>
       <c r="D33">
-        <v>-0.006421091399124263</v>
+        <v>0.001470016897786069</v>
       </c>
       <c r="E33">
-        <v>-0.08043872721447723</v>
+        <v>0.08962113363296537</v>
       </c>
       <c r="F33">
-        <v>-0.01227167627015036</v>
+        <v>0.01263980848431862</v>
       </c>
       <c r="G33">
-        <v>0.01380902723582071</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.01306496539374353</v>
+      </c>
+      <c r="H33">
+        <v>0.052345819157391</v>
+      </c>
+      <c r="I33">
+        <v>-0.009660493486934874</v>
+      </c>
+      <c r="J33">
+        <v>-0.001215621507248957</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.0478831807636006</v>
+        <v>0.04306151997068892</v>
       </c>
       <c r="C34">
-        <v>0.009093166275413775</v>
+        <v>0.02002668198899805</v>
       </c>
       <c r="D34">
-        <v>-0.01232092565871832</v>
+        <v>0.006969192194849723</v>
       </c>
       <c r="E34">
-        <v>-0.02259464897782433</v>
+        <v>0.03881872174180716</v>
       </c>
       <c r="F34">
-        <v>0.01072268120060446</v>
+        <v>0.008346709857989517</v>
       </c>
       <c r="G34">
-        <v>0.00745507649078038</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.003282848285924462</v>
+      </c>
+      <c r="H34">
+        <v>0.02233670530977843</v>
+      </c>
+      <c r="I34">
+        <v>-0.007032400386608517</v>
+      </c>
+      <c r="J34">
+        <v>0.01078535721297551</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.01074845801180911</v>
+        <v>0.01280666893923584</v>
       </c>
       <c r="C36">
-        <v>-0.009940147686799036</v>
+        <v>-0.0002333510939583992</v>
       </c>
       <c r="D36">
-        <v>-0.0003845422028468917</v>
+        <v>0.004433570993434069</v>
       </c>
       <c r="E36">
-        <v>-0.0247192807376827</v>
+        <v>0.02947539799224944</v>
       </c>
       <c r="F36">
-        <v>-0.002307221795185578</v>
+        <v>0.01262020507554691</v>
       </c>
       <c r="G36">
-        <v>0.007555617776935044</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01369138936950665</v>
+      </c>
+      <c r="H36">
+        <v>0.03605825657813337</v>
+      </c>
+      <c r="I36">
+        <v>0.01372974818747402</v>
+      </c>
+      <c r="J36">
+        <v>0.005009768824288899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05504530119853861</v>
+        <v>0.03045516666782339</v>
       </c>
       <c r="C38">
-        <v>0.0004985279378447172</v>
+        <v>0.007052335621755664</v>
       </c>
       <c r="D38">
-        <v>0.01688019976834006</v>
+        <v>0.00562166652090413</v>
       </c>
       <c r="E38">
-        <v>-0.03841567377307485</v>
+        <v>0.04672420099015121</v>
       </c>
       <c r="F38">
-        <v>0.001920626299258242</v>
+        <v>0.02021627582097779</v>
       </c>
       <c r="G38">
-        <v>0.02211817469613277</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01484098785064711</v>
+      </c>
+      <c r="H38">
+        <v>0.01173196344457324</v>
+      </c>
+      <c r="I38">
+        <v>0.009333096980053955</v>
+      </c>
+      <c r="J38">
+        <v>0.01349479986364658</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07748917527450438</v>
+        <v>0.06377027336298642</v>
       </c>
       <c r="C39">
-        <v>0.005107479995702083</v>
+        <v>0.02757805123409927</v>
       </c>
       <c r="D39">
-        <v>-0.008345508250420419</v>
+        <v>0.01756569958668033</v>
       </c>
       <c r="E39">
-        <v>-0.04729737063123483</v>
+        <v>0.06248041229243782</v>
       </c>
       <c r="F39">
-        <v>-0.00293407717178671</v>
+        <v>0.001240472761472921</v>
       </c>
       <c r="G39">
-        <v>-0.01408172420673636</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.003556395420685768</v>
+      </c>
+      <c r="H39">
+        <v>0.01958678225243322</v>
+      </c>
+      <c r="I39">
+        <v>-0.02011444777890916</v>
+      </c>
+      <c r="J39">
+        <v>0.01810081800889988</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.07215554350560542</v>
+        <v>0.05655182908337731</v>
       </c>
       <c r="C40">
-        <v>0.02332980913760175</v>
+        <v>0.02977830997256726</v>
       </c>
       <c r="D40">
-        <v>-0.02157767816646503</v>
+        <v>0.01729150571885672</v>
       </c>
       <c r="E40">
-        <v>-0.1144136121475857</v>
+        <v>0.1118170719483572</v>
       </c>
       <c r="F40">
-        <v>0.004250755719880472</v>
+        <v>0.005029600117890965</v>
       </c>
       <c r="G40">
-        <v>0.06651428841691079</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.005760877355869103</v>
+      </c>
+      <c r="H40">
+        <v>0.08204091691075414</v>
+      </c>
+      <c r="I40">
+        <v>0.02696928517323343</v>
+      </c>
+      <c r="J40">
+        <v>0.004014494979997899</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.003142480153015389</v>
+        <v>0.0002037762039833649</v>
       </c>
       <c r="C41">
-        <v>0.007121092790208258</v>
+        <v>0.009284309889237318</v>
       </c>
       <c r="D41">
-        <v>0.01005077567729664</v>
+        <v>0.002289643943858024</v>
       </c>
       <c r="E41">
-        <v>-0.02513541493747956</v>
+        <v>0.02105477770647013</v>
       </c>
       <c r="F41">
-        <v>-0.02195138046821877</v>
+        <v>0.008835966628894947</v>
       </c>
       <c r="G41">
-        <v>0.02496598336776766</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.0300861562392628</v>
+      </c>
+      <c r="H41">
+        <v>0.0406329086311379</v>
+      </c>
+      <c r="I41">
+        <v>0.01827255756203206</v>
+      </c>
+      <c r="J41">
+        <v>-0.02845414313955335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1480447609220624</v>
+        <v>0.2491045916945708</v>
       </c>
       <c r="C42">
-        <v>0.1673635435532833</v>
+        <v>0.1151034271016586</v>
       </c>
       <c r="D42">
-        <v>-0.9141283816103779</v>
+        <v>-0.9139755318480733</v>
       </c>
       <c r="E42">
-        <v>0.1757504752266335</v>
+        <v>-0.1332842217286792</v>
       </c>
       <c r="F42">
-        <v>-0.006980259433249373</v>
+        <v>-0.1999443887891689</v>
       </c>
       <c r="G42">
-        <v>-0.1358926909394577</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.01043122944202182</v>
+      </c>
+      <c r="H42">
+        <v>-0.01090580783483007</v>
+      </c>
+      <c r="I42">
+        <v>0.03247038068433909</v>
+      </c>
+      <c r="J42">
+        <v>-0.04719160958742488</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.008774708384823988</v>
+        <v>0.001763375718843934</v>
       </c>
       <c r="C43">
-        <v>0.008676610565642607</v>
+        <v>0.01222619932139135</v>
       </c>
       <c r="D43">
-        <v>0.01219645038614223</v>
+        <v>0.003589893619149811</v>
       </c>
       <c r="E43">
-        <v>-0.03732895995592042</v>
+        <v>0.0320823869524557</v>
       </c>
       <c r="F43">
-        <v>0.01001891595770603</v>
+        <v>0.008024336928410571</v>
       </c>
       <c r="G43">
-        <v>0.02110557751768108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.008178421252057502</v>
+      </c>
+      <c r="H43">
+        <v>0.03728985266453704</v>
+      </c>
+      <c r="I43">
+        <v>0.009228075601006412</v>
+      </c>
+      <c r="J43">
+        <v>-0.02153542250780233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.04504152215109694</v>
+        <v>0.02934822642697854</v>
       </c>
       <c r="C44">
-        <v>0.02635765078778139</v>
+        <v>0.02912567016165296</v>
       </c>
       <c r="D44">
-        <v>-0.01530388516266312</v>
+        <v>-0.004078011515513121</v>
       </c>
       <c r="E44">
-        <v>-0.121913581606585</v>
+        <v>0.1206695345307697</v>
       </c>
       <c r="F44">
-        <v>-0.02618214291296825</v>
+        <v>0.03682358239645331</v>
       </c>
       <c r="G44">
-        <v>0.1008048745969225</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.02564945188562212</v>
+      </c>
+      <c r="H44">
+        <v>0.1147855059883175</v>
+      </c>
+      <c r="I44">
+        <v>0.03906874962978379</v>
+      </c>
+      <c r="J44">
+        <v>-0.006211534653784614</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02114154873409177</v>
+        <v>0.02105015381169692</v>
       </c>
       <c r="C46">
-        <v>0.01075063133626981</v>
+        <v>0.02256269299018807</v>
       </c>
       <c r="D46">
-        <v>0.01758914318303858</v>
+        <v>0.01488078171827762</v>
       </c>
       <c r="E46">
-        <v>-0.03341240118987614</v>
+        <v>0.04837216849436431</v>
       </c>
       <c r="F46">
-        <v>-0.01933757264635491</v>
+        <v>0.01505737713520265</v>
       </c>
       <c r="G46">
-        <v>0.0370634295981327</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.01803458164984338</v>
+      </c>
+      <c r="H46">
+        <v>0.06340866779716191</v>
+      </c>
+      <c r="I46">
+        <v>0.005914489776346346</v>
+      </c>
+      <c r="J46">
+        <v>-0.03550219336981483</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.08003744360377495</v>
+        <v>0.08800033342038921</v>
       </c>
       <c r="C47">
-        <v>0.001759752598653837</v>
+        <v>0.0118843522659029</v>
       </c>
       <c r="D47">
-        <v>0.01724695614314287</v>
+        <v>0.02076201960515704</v>
       </c>
       <c r="E47">
-        <v>0.00286288336862123</v>
+        <v>0.005307125205209456</v>
       </c>
       <c r="F47">
-        <v>-0.01336762635368728</v>
+        <v>-0.001661027385379115</v>
       </c>
       <c r="G47">
-        <v>0.0421209603417325</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.03481684877255831</v>
+      </c>
+      <c r="H47">
+        <v>0.06933611937284141</v>
+      </c>
+      <c r="I47">
+        <v>0.01889719288305273</v>
+      </c>
+      <c r="J47">
+        <v>-0.0268587014354285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01361160771413834</v>
+        <v>0.01382481239468002</v>
       </c>
       <c r="C48">
-        <v>0.01354157743274006</v>
+        <v>0.01733599354521666</v>
       </c>
       <c r="D48">
-        <v>0.00739096827374962</v>
+        <v>0.003585656128654803</v>
       </c>
       <c r="E48">
-        <v>-0.03923505628289256</v>
+        <v>0.04075378299466348</v>
       </c>
       <c r="F48">
-        <v>-0.004968739582964453</v>
+        <v>0.01285804023878266</v>
       </c>
       <c r="G48">
-        <v>0.006702612348918983</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.005834151474616646</v>
+      </c>
+      <c r="H48">
+        <v>0.02513037449682027</v>
+      </c>
+      <c r="I48">
+        <v>0.01204152760192778</v>
+      </c>
+      <c r="J48">
+        <v>-0.01411300967554491</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.07870329932650615</v>
+        <v>0.08075407609460536</v>
       </c>
       <c r="C50">
-        <v>0.02698785235869342</v>
+        <v>0.03445794802705731</v>
       </c>
       <c r="D50">
-        <v>0.01775859163783529</v>
+        <v>0.01708740380200693</v>
       </c>
       <c r="E50">
-        <v>0.01304822785357492</v>
+        <v>0.008615937204823013</v>
       </c>
       <c r="F50">
-        <v>-0.01854986211127597</v>
+        <v>-0.001988243322961282</v>
       </c>
       <c r="G50">
-        <v>0.02009393392228443</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.01050218099378892</v>
+      </c>
+      <c r="H50">
+        <v>0.05147409887036346</v>
+      </c>
+      <c r="I50">
+        <v>0.02005571033730529</v>
+      </c>
+      <c r="J50">
+        <v>0.004477170323394772</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.06658880503646138</v>
+        <v>0.04758502749465728</v>
       </c>
       <c r="C51">
-        <v>-0.03484425686653681</v>
+        <v>-0.01342290111556596</v>
       </c>
       <c r="D51">
-        <v>-0.001680488031859106</v>
+        <v>0.00561239312016267</v>
       </c>
       <c r="E51">
-        <v>-0.08443756062543502</v>
+        <v>0.1051051351398239</v>
       </c>
       <c r="F51">
-        <v>-0.0405271849635103</v>
+        <v>0.007053454224222032</v>
       </c>
       <c r="G51">
-        <v>0.0117828769026172</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04139509916937321</v>
+      </c>
+      <c r="H51">
+        <v>0.05444064625332149</v>
+      </c>
+      <c r="I51">
+        <v>0.02347399784862102</v>
+      </c>
+      <c r="J51">
+        <v>-0.0671279922293619</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1457774586656018</v>
+        <v>0.1291571852456709</v>
       </c>
       <c r="C53">
-        <v>0.001407643691489119</v>
+        <v>0.03179168338890594</v>
       </c>
       <c r="D53">
-        <v>0.04309045092958061</v>
+        <v>0.04718128769215126</v>
       </c>
       <c r="E53">
-        <v>0.001163815559764308</v>
+        <v>-0.01655507054609383</v>
       </c>
       <c r="F53">
-        <v>-0.01526114838744335</v>
+        <v>-0.008457516778008116</v>
       </c>
       <c r="G53">
-        <v>0.03019533382242974</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.03378197433082772</v>
+      </c>
+      <c r="H53">
+        <v>0.01516847959603034</v>
+      </c>
+      <c r="I53">
+        <v>-0.008214610811886174</v>
+      </c>
+      <c r="J53">
+        <v>-0.08717678055736057</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02136604730342576</v>
+        <v>0.0216864498853899</v>
       </c>
       <c r="C54">
-        <v>-0.01057477181527948</v>
+        <v>0.00104067300788299</v>
       </c>
       <c r="D54">
-        <v>0.01891583955171959</v>
+        <v>0.02339784307115602</v>
       </c>
       <c r="E54">
-        <v>-0.04593472657694171</v>
+        <v>0.04167186724149483</v>
       </c>
       <c r="F54">
-        <v>-0.03518007953784187</v>
+        <v>0.02571827136996933</v>
       </c>
       <c r="G54">
-        <v>0.04809458508415757</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03563819475927857</v>
+      </c>
+      <c r="H54">
+        <v>0.06900313444127466</v>
+      </c>
+      <c r="I54">
+        <v>0.04057870306091021</v>
+      </c>
+      <c r="J54">
+        <v>-0.02518516031599338</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09638473597377208</v>
+        <v>0.1022197112949456</v>
       </c>
       <c r="C55">
-        <v>-0.005719763227130051</v>
+        <v>0.01513762882967253</v>
       </c>
       <c r="D55">
-        <v>0.03216412147926338</v>
+        <v>0.03046717492805889</v>
       </c>
       <c r="E55">
-        <v>-0.01590971064801812</v>
+        <v>-0.01752371946629182</v>
       </c>
       <c r="F55">
-        <v>0.02023201048128085</v>
+        <v>0.03078920682427654</v>
       </c>
       <c r="G55">
-        <v>0.02068753443872621</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.0007779095829456402</v>
+      </c>
+      <c r="H55">
+        <v>0.03119590550672038</v>
+      </c>
+      <c r="I55">
+        <v>-0.01945466519652685</v>
+      </c>
+      <c r="J55">
+        <v>-0.07287860753047834</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1795177182102532</v>
+        <v>0.1692062278367068</v>
       </c>
       <c r="C56">
-        <v>-0.02693776706776304</v>
+        <v>0.01297885315300191</v>
       </c>
       <c r="D56">
-        <v>0.09102853977477959</v>
+        <v>0.09097456393069701</v>
       </c>
       <c r="E56">
-        <v>0.052225218457201</v>
+        <v>-0.06950286146305654</v>
       </c>
       <c r="F56">
-        <v>0.03419877224122071</v>
+        <v>0.002619504462460921</v>
       </c>
       <c r="G56">
-        <v>0.01305939697900606</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.01097775533274668</v>
+      </c>
+      <c r="H56">
+        <v>-0.03170298746680415</v>
+      </c>
+      <c r="I56">
+        <v>-0.05211526206414596</v>
+      </c>
+      <c r="J56">
+        <v>-0.07986722153920917</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09371399409789798</v>
+        <v>0.07410051633451981</v>
       </c>
       <c r="C57">
-        <v>0.0144822990921825</v>
+        <v>0.01963341360490225</v>
       </c>
       <c r="D57">
-        <v>0.011376485024452</v>
+        <v>0.008606968412931888</v>
       </c>
       <c r="E57">
-        <v>-0.0747087313356343</v>
+        <v>0.07986911495743326</v>
       </c>
       <c r="F57">
-        <v>0.01673833292064362</v>
+        <v>0.01168703731352281</v>
       </c>
       <c r="G57">
-        <v>0.03755235341581759</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.004417733819999748</v>
+      </c>
+      <c r="H57">
+        <v>0.04824534840121157</v>
+      </c>
+      <c r="I57">
+        <v>-0.01633271039637317</v>
+      </c>
+      <c r="J57">
+        <v>-0.01039235157509381</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1687701881325548</v>
+        <v>0.1945566470005323</v>
       </c>
       <c r="C58">
-        <v>-0.004793154420440089</v>
+        <v>0.03336531080692371</v>
       </c>
       <c r="D58">
-        <v>-0.06960704257867606</v>
+        <v>-0.01096863983897146</v>
       </c>
       <c r="E58">
-        <v>-0.06365543359387736</v>
+        <v>0.1550068611307727</v>
       </c>
       <c r="F58">
-        <v>0.08644732349638362</v>
+        <v>0.0169346999878351</v>
       </c>
       <c r="G58">
-        <v>0.1933651299163016</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1679161248413908</v>
+      </c>
+      <c r="H58">
+        <v>0.3086092873712465</v>
+      </c>
+      <c r="I58">
+        <v>0.1297394738215502</v>
+      </c>
+      <c r="J58">
+        <v>0.1804426214882073</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.01628211679311911</v>
+        <v>0.01537752549393115</v>
       </c>
       <c r="C59">
-        <v>-0.2042120978565536</v>
+        <v>-0.1999557216442661</v>
       </c>
       <c r="D59">
-        <v>0.01739885762702739</v>
+        <v>0.01975636722713001</v>
       </c>
       <c r="E59">
-        <v>-0.03198954477134948</v>
+        <v>0.0496198809114372</v>
       </c>
       <c r="F59">
-        <v>0.01164295187619581</v>
+        <v>-0.01493278029152282</v>
       </c>
       <c r="G59">
-        <v>-0.04460364741134006</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.003760050568113813</v>
+      </c>
+      <c r="H59">
+        <v>-0.0299714862856314</v>
+      </c>
+      <c r="I59">
+        <v>0.0775134034066569</v>
+      </c>
+      <c r="J59">
+        <v>-0.03527288421725991</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1737906606314181</v>
+        <v>0.1771973482724199</v>
       </c>
       <c r="C60">
-        <v>-0.1325238102116817</v>
+        <v>-0.07194007933759805</v>
       </c>
       <c r="D60">
-        <v>0.006484102085987793</v>
+        <v>0.0245904845020741</v>
       </c>
       <c r="E60">
-        <v>-0.1797392873505057</v>
+        <v>0.2009347316024133</v>
       </c>
       <c r="F60">
-        <v>0.01231250234387306</v>
+        <v>-0.04632637736798631</v>
       </c>
       <c r="G60">
-        <v>-0.160857793660249</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.07138446311356637</v>
+      </c>
+      <c r="H60">
+        <v>-0.228115893924993</v>
+      </c>
+      <c r="I60">
+        <v>-0.1059845609821934</v>
+      </c>
+      <c r="J60">
+        <v>0.04261099333454687</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.0516852923111367</v>
+        <v>0.0398952737287224</v>
       </c>
       <c r="C61">
-        <v>0.0007981360545322852</v>
+        <v>0.01539742981524672</v>
       </c>
       <c r="D61">
-        <v>-0.01220674567673733</v>
+        <v>0.001314597016483735</v>
       </c>
       <c r="E61">
-        <v>-0.03775550767698558</v>
+        <v>0.04524437283477808</v>
       </c>
       <c r="F61">
-        <v>-0.0006859488097125274</v>
+        <v>0.002974048298145288</v>
       </c>
       <c r="G61">
-        <v>-0.03354336265106311</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.0009909859366379174</v>
+      </c>
+      <c r="H61">
+        <v>0.002834477873913288</v>
+      </c>
+      <c r="I61">
+        <v>-0.02337367905065498</v>
+      </c>
+      <c r="J61">
+        <v>0.029997907103832</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.03725900022137918</v>
+        <v>0.02946768419610526</v>
       </c>
       <c r="C63">
-        <v>-0.0119954068008662</v>
+        <v>0.009081254179645757</v>
       </c>
       <c r="D63">
-        <v>0.005216885823716317</v>
+        <v>0.007303264339737433</v>
       </c>
       <c r="E63">
-        <v>-0.04283659022432158</v>
+        <v>0.037492355762978</v>
       </c>
       <c r="F63">
-        <v>0.00229305031380981</v>
+        <v>0.01213304110662817</v>
       </c>
       <c r="G63">
-        <v>0.01589196583562445</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.006000648479105303</v>
+      </c>
+      <c r="H63">
+        <v>0.04499751289553833</v>
+      </c>
+      <c r="I63">
+        <v>0.01746581150793184</v>
+      </c>
+      <c r="J63">
+        <v>-0.04783442852343392</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.09108282162021937</v>
+        <v>0.06619039221897166</v>
       </c>
       <c r="C64">
-        <v>0.005830264721846153</v>
+        <v>0.03096424925546671</v>
       </c>
       <c r="D64">
-        <v>0.04439712674944635</v>
+        <v>0.03355916769302233</v>
       </c>
       <c r="E64">
-        <v>-0.1211960374844688</v>
+        <v>0.07280361553056161</v>
       </c>
       <c r="F64">
-        <v>-0.0813218124156582</v>
+        <v>0.05836359624780938</v>
       </c>
       <c r="G64">
-        <v>-0.03709892860494626</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.07374945258925025</v>
+      </c>
+      <c r="H64">
+        <v>-0.01944728331478408</v>
+      </c>
+      <c r="I64">
+        <v>-0.0224024781157723</v>
+      </c>
+      <c r="J64">
+        <v>-0.07981632239417839</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01079013941848102</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.004223186113825445</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.0007661146384594614</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.004110189560107209</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.001466818610372994</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.01335407860662671</v>
+      </c>
+      <c r="H65">
+        <v>0.0028583422701572</v>
+      </c>
+      <c r="I65">
+        <v>0.0009279513234364646</v>
+      </c>
+      <c r="J65">
+        <v>-0.0003331143349006179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1028575881213404</v>
+        <v>0.07548914202287831</v>
       </c>
       <c r="C66">
-        <v>0.006381602951690236</v>
+        <v>0.03727410221684658</v>
       </c>
       <c r="D66">
-        <v>0.02303026078319527</v>
+        <v>0.03984998061683313</v>
       </c>
       <c r="E66">
-        <v>-0.09257450324197349</v>
+        <v>0.08798383275022356</v>
       </c>
       <c r="F66">
-        <v>-0.005578184871347007</v>
+        <v>0.002952367177142355</v>
       </c>
       <c r="G66">
-        <v>-0.01089251299673628</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.004053158714204932</v>
+      </c>
+      <c r="H66">
+        <v>0.01650112356402187</v>
+      </c>
+      <c r="I66">
+        <v>-0.04331899791866334</v>
+      </c>
+      <c r="J66">
+        <v>0.0123235981568683</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.0605827531156472</v>
+        <v>0.04009162670005151</v>
       </c>
       <c r="C67">
-        <v>-0.02124917598294193</v>
+        <v>-0.009927719795003263</v>
       </c>
       <c r="D67">
-        <v>0.006212179981775376</v>
+        <v>0.004549665580365147</v>
       </c>
       <c r="E67">
-        <v>-0.03051976436898439</v>
+        <v>0.04131984858091069</v>
       </c>
       <c r="F67">
-        <v>0.002318340765727768</v>
+        <v>0.006770297019318848</v>
       </c>
       <c r="G67">
-        <v>0.02459981214756858</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02172876047884378</v>
+      </c>
+      <c r="H67">
+        <v>-0.001875736489847239</v>
+      </c>
+      <c r="I67">
+        <v>-0.02915656781929517</v>
+      </c>
+      <c r="J67">
+        <v>0.0215360623495767</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.01579238708630168</v>
+        <v>0.02316703155803952</v>
       </c>
       <c r="C68">
-        <v>-0.24487823426837</v>
+        <v>-0.2381922716681797</v>
       </c>
       <c r="D68">
-        <v>-0.003405227422966277</v>
+        <v>0.009288165270056372</v>
       </c>
       <c r="E68">
-        <v>-0.01624897614160527</v>
+        <v>0.03535076764156075</v>
       </c>
       <c r="F68">
-        <v>0.02305862269707402</v>
+        <v>-0.0007992594967493753</v>
       </c>
       <c r="G68">
-        <v>-0.03649203471914315</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01646322608214982</v>
+      </c>
+      <c r="H68">
+        <v>-0.03536686478530998</v>
+      </c>
+      <c r="I68">
+        <v>0.1572757955242376</v>
+      </c>
+      <c r="J68">
+        <v>-0.08309267393511489</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.06497822210530747</v>
+        <v>0.06862395299777879</v>
       </c>
       <c r="C69">
-        <v>0.004811968991888206</v>
+        <v>0.01037127724976045</v>
       </c>
       <c r="D69">
-        <v>0.02632925647733558</v>
+        <v>0.02735731436961353</v>
       </c>
       <c r="E69">
-        <v>-0.001648557140739535</v>
+        <v>0.01257543213938838</v>
       </c>
       <c r="F69">
-        <v>-0.004889189058943351</v>
+        <v>-0.006587919801759535</v>
       </c>
       <c r="G69">
-        <v>0.008334570847757478</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.024159915426827</v>
+      </c>
+      <c r="H69">
+        <v>0.04871530905451946</v>
+      </c>
+      <c r="I69">
+        <v>-0.0001543526663769286</v>
+      </c>
+      <c r="J69">
+        <v>-0.009579359531354333</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.007222632625784558</v>
+        <v>0.03092732084453613</v>
       </c>
       <c r="C71">
-        <v>-0.2363023619514552</v>
+        <v>-0.2397378968476157</v>
       </c>
       <c r="D71">
-        <v>-0.0097841731184012</v>
+        <v>-0.01113404322868632</v>
       </c>
       <c r="E71">
-        <v>-0.02987314669565201</v>
+        <v>0.05172907818260412</v>
       </c>
       <c r="F71">
-        <v>0.0275178863815171</v>
+        <v>-0.02933881545298732</v>
       </c>
       <c r="G71">
-        <v>-0.1358929433212453</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.001128800577005048</v>
+      </c>
+      <c r="H71">
+        <v>-0.04950508231364404</v>
+      </c>
+      <c r="I71">
+        <v>0.1624197989390101</v>
+      </c>
+      <c r="J71">
+        <v>-0.02115025709789169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1041650306723088</v>
+        <v>0.112252890453921</v>
       </c>
       <c r="C72">
-        <v>-0.02931369676083733</v>
+        <v>-0.01155301464797544</v>
       </c>
       <c r="D72">
-        <v>0.03767048114335139</v>
+        <v>0.05931076014071395</v>
       </c>
       <c r="E72">
-        <v>-0.06682052192362832</v>
+        <v>0.08386032649669253</v>
       </c>
       <c r="F72">
-        <v>0.009469790103933838</v>
+        <v>0.01953245575864843</v>
       </c>
       <c r="G72">
-        <v>0.02510296182885384</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.03320417955246519</v>
+      </c>
+      <c r="H72">
+        <v>0.003401222323296802</v>
+      </c>
+      <c r="I72">
+        <v>0.008972779764604656</v>
+      </c>
+      <c r="J72">
+        <v>0.02183485847017405</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.266246104848224</v>
+        <v>0.27128610850922</v>
       </c>
       <c r="C73">
-        <v>-0.2312319716940603</v>
+        <v>-0.152258159628696</v>
       </c>
       <c r="D73">
-        <v>-0.04125867874654722</v>
+        <v>0.001729580159494225</v>
       </c>
       <c r="E73">
-        <v>-0.2518301964033567</v>
+        <v>0.3069288329491493</v>
       </c>
       <c r="F73">
-        <v>0.08058779126613665</v>
+        <v>-0.08418141925981706</v>
       </c>
       <c r="G73">
-        <v>-0.3986025634402848</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1649569319274551</v>
+      </c>
+      <c r="H73">
+        <v>-0.415881611530552</v>
+      </c>
+      <c r="I73">
+        <v>-0.2443598625133576</v>
+      </c>
+      <c r="J73">
+        <v>0.3191068868933142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1554719311436907</v>
+        <v>0.1533754534236535</v>
       </c>
       <c r="C74">
-        <v>-0.01789180133154092</v>
+        <v>0.005730388890516812</v>
       </c>
       <c r="D74">
-        <v>0.05198711417575451</v>
+        <v>0.04738196218792899</v>
       </c>
       <c r="E74">
-        <v>-0.008839176708223756</v>
+        <v>-0.02558127431729349</v>
       </c>
       <c r="F74">
-        <v>0.03665800022607538</v>
+        <v>0.002621207117099138</v>
       </c>
       <c r="G74">
-        <v>-0.004727136731374734</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.011924539481708</v>
+      </c>
+      <c r="H74">
+        <v>-0.02079925956516958</v>
+      </c>
+      <c r="I74">
+        <v>-0.05043014508523384</v>
+      </c>
+      <c r="J74">
+        <v>-0.0844464622606229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2355629603336991</v>
+        <v>0.2444231561659932</v>
       </c>
       <c r="C75">
-        <v>-0.02225479951928979</v>
+        <v>0.01572237964729481</v>
       </c>
       <c r="D75">
-        <v>0.07437647429039494</v>
+        <v>0.1042058615626996</v>
       </c>
       <c r="E75">
-        <v>0.08975992063305824</v>
+        <v>-0.1108328519904118</v>
       </c>
       <c r="F75">
-        <v>0.004674185440621354</v>
+        <v>-0.02134334702651389</v>
       </c>
       <c r="G75">
-        <v>0.04309482164148906</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.02670056153072572</v>
+      </c>
+      <c r="H75">
+        <v>-0.01308372128927135</v>
+      </c>
+      <c r="I75">
+        <v>-0.0513444177916604</v>
+      </c>
+      <c r="J75">
+        <v>-0.180502626140366</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.239575145615701</v>
+        <v>0.259929587530841</v>
       </c>
       <c r="C76">
-        <v>-0.02408353286295153</v>
+        <v>0.005808431531322614</v>
       </c>
       <c r="D76">
-        <v>0.1164330056455037</v>
+        <v>0.1288827495852129</v>
       </c>
       <c r="E76">
-        <v>0.06837317933491931</v>
+        <v>-0.1343996767926262</v>
       </c>
       <c r="F76">
-        <v>0.01803631854973781</v>
+        <v>0.01012966615990609</v>
       </c>
       <c r="G76">
-        <v>0.02061117892672391</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.01181581211787649</v>
+      </c>
+      <c r="H76">
+        <v>-0.009221011591287269</v>
+      </c>
+      <c r="I76">
+        <v>-0.1104258584506331</v>
+      </c>
+      <c r="J76">
+        <v>-0.1621026005568452</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1223647893709004</v>
+        <v>0.1329319323076868</v>
       </c>
       <c r="C77">
-        <v>8.726745036114412e-05</v>
+        <v>0.02662438883959707</v>
       </c>
       <c r="D77">
-        <v>-0.08890972683974606</v>
+        <v>-0.05537147517796133</v>
       </c>
       <c r="E77">
-        <v>-0.1673730777474942</v>
+        <v>0.1730081856687081</v>
       </c>
       <c r="F77">
-        <v>0.04076311221718221</v>
+        <v>0.06389255206197213</v>
       </c>
       <c r="G77">
-        <v>0.1281748628020352</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.02215402910021969</v>
+      </c>
+      <c r="H77">
+        <v>0.1505057113824644</v>
+      </c>
+      <c r="I77">
+        <v>0.1298373629898298</v>
+      </c>
+      <c r="J77">
+        <v>-0.1026981599433321</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.09374340243923816</v>
+        <v>0.09043495683706683</v>
       </c>
       <c r="C78">
-        <v>0.02004381389799587</v>
+        <v>0.04653625272941866</v>
       </c>
       <c r="D78">
-        <v>-0.03073816672878986</v>
+        <v>-0.005625274533851512</v>
       </c>
       <c r="E78">
-        <v>-0.08016014091514485</v>
+        <v>0.09218968793162567</v>
       </c>
       <c r="F78">
-        <v>0.01670671121453975</v>
+        <v>0.03726596797454089</v>
       </c>
       <c r="G78">
-        <v>-0.02615672168285093</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01031358717494034</v>
+      </c>
+      <c r="H78">
+        <v>0.01465961239497503</v>
+      </c>
+      <c r="I78">
+        <v>0.02820216444702903</v>
+      </c>
+      <c r="J78">
+        <v>-0.03355971492979698</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.07390119925935541</v>
+        <v>0.08824040299062444</v>
       </c>
       <c r="C80">
-        <v>-0.01714382103922739</v>
+        <v>-0.0738978713942007</v>
       </c>
       <c r="D80">
-        <v>-0.01250175613204657</v>
+        <v>-0.1768994613331294</v>
       </c>
       <c r="E80">
-        <v>0.01957530884148347</v>
+        <v>-0.1575398048043762</v>
       </c>
       <c r="F80">
-        <v>0.04816823237250319</v>
+        <v>0.9339495615253114</v>
       </c>
       <c r="G80">
-        <v>0.3298285286332123</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.03690387683773553</v>
+      </c>
+      <c r="H80">
+        <v>-0.1693803402217505</v>
+      </c>
+      <c r="I80">
+        <v>-0.01219834404382922</v>
+      </c>
+      <c r="J80">
+        <v>0.1053686783388858</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1641661534546543</v>
+        <v>0.1736504209471192</v>
       </c>
       <c r="C81">
-        <v>-0.01568761861474717</v>
+        <v>0.004978334573594113</v>
       </c>
       <c r="D81">
-        <v>0.06867175618309274</v>
+        <v>0.09070349890633105</v>
       </c>
       <c r="E81">
-        <v>0.1105644443477416</v>
+        <v>-0.1347358220702452</v>
       </c>
       <c r="F81">
-        <v>0.02549347791349341</v>
+        <v>-0.02264736452306389</v>
       </c>
       <c r="G81">
-        <v>0.03035852122360774</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.00521075334502653</v>
+      </c>
+      <c r="H81">
+        <v>-0.008783862638125878</v>
+      </c>
+      <c r="I81">
+        <v>-0.05121034522979126</v>
+      </c>
+      <c r="J81">
+        <v>-0.1269586812142353</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.07861945811653177</v>
+        <v>0.06484368750652128</v>
       </c>
       <c r="C83">
-        <v>0.01693268667968836</v>
+        <v>0.03146454548440687</v>
       </c>
       <c r="D83">
-        <v>-0.09568312025205794</v>
+        <v>-0.04476039264279279</v>
       </c>
       <c r="E83">
-        <v>-0.06726696506484503</v>
+        <v>0.06757218989487516</v>
       </c>
       <c r="F83">
-        <v>-0.05316554908958716</v>
+        <v>-0.009653430049687863</v>
       </c>
       <c r="G83">
-        <v>0.0456939979372439</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04876735589041976</v>
+      </c>
+      <c r="H83">
+        <v>0.04067615062156577</v>
+      </c>
+      <c r="I83">
+        <v>-0.01306534067340688</v>
+      </c>
+      <c r="J83">
+        <v>-0.08568946085794367</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2470649067841684</v>
+        <v>0.2568615306809078</v>
       </c>
       <c r="C85">
-        <v>0.03829047233145251</v>
+        <v>0.04942289883965211</v>
       </c>
       <c r="D85">
-        <v>0.06708199705360375</v>
+        <v>0.08727655794718032</v>
       </c>
       <c r="E85">
-        <v>0.09884712341295414</v>
+        <v>-0.1353941901333784</v>
       </c>
       <c r="F85">
-        <v>-0.006797214988575342</v>
+        <v>0.01175296222835312</v>
       </c>
       <c r="G85">
-        <v>0.06840460063611134</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.02753895870441661</v>
+      </c>
+      <c r="H85">
+        <v>0.02130723757043848</v>
+      </c>
+      <c r="I85">
+        <v>-0.07627931186175363</v>
+      </c>
+      <c r="J85">
+        <v>-0.2059016360213566</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04659131901449531</v>
+        <v>0.03129402134173453</v>
       </c>
       <c r="C86">
-        <v>0.02440500644947224</v>
+        <v>0.03838268635019568</v>
       </c>
       <c r="D86">
-        <v>0.001314059139726342</v>
+        <v>0.003625442178045472</v>
       </c>
       <c r="E86">
-        <v>-0.05269442862055531</v>
+        <v>0.06028575336953368</v>
       </c>
       <c r="F86">
-        <v>0.01393481650923743</v>
+        <v>0.03582300436132912</v>
       </c>
       <c r="G86">
-        <v>0.01641669735357397</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.00890737680635053</v>
+      </c>
+      <c r="H86">
+        <v>0.03778932217448869</v>
+      </c>
+      <c r="I86">
+        <v>0.07430355621094606</v>
+      </c>
+      <c r="J86">
+        <v>0.003511437137088655</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.03132628379848572</v>
+        <v>0.03922686531304494</v>
       </c>
       <c r="C87">
-        <v>-0.05198433840384387</v>
+        <v>-0.02562336249568171</v>
       </c>
       <c r="D87">
-        <v>0.005335375534949773</v>
+        <v>0.0003469846754248745</v>
       </c>
       <c r="E87">
-        <v>-0.05628644562102821</v>
+        <v>0.08674817661064885</v>
       </c>
       <c r="F87">
-        <v>-0.007372685616769236</v>
+        <v>0.01633782171881472</v>
       </c>
       <c r="G87">
-        <v>-0.1608300210649623</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.003602206135179576</v>
+      </c>
+      <c r="H87">
+        <v>-0.01562126676424755</v>
+      </c>
+      <c r="I87">
+        <v>0.03672968932917731</v>
+      </c>
+      <c r="J87">
+        <v>0.1013871576655086</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.03735830554247883</v>
+        <v>0.02226022761024757</v>
       </c>
       <c r="C88">
-        <v>0.01851727424604111</v>
+        <v>0.01653778421631109</v>
       </c>
       <c r="D88">
-        <v>0.006972731974216354</v>
+        <v>0.01186009328692148</v>
       </c>
       <c r="E88">
-        <v>-0.004741865758801551</v>
+        <v>0.004384033649353287</v>
       </c>
       <c r="F88">
-        <v>0.0009346353254438244</v>
+        <v>0.02209109618791095</v>
       </c>
       <c r="G88">
-        <v>0.06460331362993446</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.03324643304568446</v>
+      </c>
+      <c r="H88">
+        <v>0.04416725757127599</v>
+      </c>
+      <c r="I88">
+        <v>-0.008201690255704634</v>
+      </c>
+      <c r="J88">
+        <v>0.02048423176455804</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.0337098411114336</v>
+        <v>0.0356429592007594</v>
       </c>
       <c r="C89">
-        <v>-0.4340880730955661</v>
+        <v>-0.4035069570371164</v>
       </c>
       <c r="D89">
-        <v>-0.08904467427485413</v>
+        <v>-0.03537590476819481</v>
       </c>
       <c r="E89">
-        <v>0.04636968618798237</v>
+        <v>0.03656536241062579</v>
       </c>
       <c r="F89">
-        <v>-0.03489414299495333</v>
+        <v>-0.04874211464885893</v>
       </c>
       <c r="G89">
-        <v>0.0329801675953449</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.06917192766228122</v>
+      </c>
+      <c r="H89">
+        <v>0.007239152448649844</v>
+      </c>
+      <c r="I89">
+        <v>0.2409209381630413</v>
+      </c>
+      <c r="J89">
+        <v>-0.156877508346196</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.03270616880920937</v>
+        <v>0.01800478936294412</v>
       </c>
       <c r="C90">
-        <v>-0.3093292671205423</v>
+        <v>-0.3338462554535964</v>
       </c>
       <c r="D90">
-        <v>-0.01970721155093081</v>
+        <v>-0.01707366983103109</v>
       </c>
       <c r="E90">
-        <v>-0.01016499943432353</v>
+        <v>0.02320160513336104</v>
       </c>
       <c r="F90">
-        <v>0.01058396335516333</v>
+        <v>0.001800781692527915</v>
       </c>
       <c r="G90">
-        <v>-0.0719550136384679</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.01225556188466644</v>
+      </c>
+      <c r="H90">
+        <v>-0.04538105410128828</v>
+      </c>
+      <c r="I90">
+        <v>0.1746037487396229</v>
+      </c>
+      <c r="J90">
+        <v>-0.1113667050737065</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.3133041022440193</v>
+        <v>0.3221710075624712</v>
       </c>
       <c r="C91">
-        <v>0.006491496949138269</v>
+        <v>0.03079317190226882</v>
       </c>
       <c r="D91">
-        <v>0.09873661417303967</v>
+        <v>0.1092785629209917</v>
       </c>
       <c r="E91">
-        <v>0.2404254654925359</v>
+        <v>-0.2621918188276152</v>
       </c>
       <c r="F91">
-        <v>0.02793685158188039</v>
+        <v>-0.02999762071785947</v>
       </c>
       <c r="G91">
-        <v>0.1979644147079289</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.005610257825142274</v>
+      </c>
+      <c r="H91">
+        <v>-0.005909735918358689</v>
+      </c>
+      <c r="I91">
+        <v>-0.1268640779329898</v>
+      </c>
+      <c r="J91">
+        <v>-0.3494438977177629</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.04600270057993933</v>
+        <v>0.05578366133610923</v>
       </c>
       <c r="C92">
-        <v>-0.4464522806595482</v>
+        <v>-0.4780870649414705</v>
       </c>
       <c r="D92">
-        <v>-0.190404732684179</v>
+        <v>-0.06293605264980244</v>
       </c>
       <c r="E92">
-        <v>0.1537010659908866</v>
+        <v>-0.1453804667296732</v>
       </c>
       <c r="F92">
-        <v>0.04177285801686035</v>
+        <v>-0.006838311859322652</v>
       </c>
       <c r="G92">
-        <v>0.5127142141054822</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.0604570495263717</v>
+      </c>
+      <c r="H92">
+        <v>0.5632249396015143</v>
+      </c>
+      <c r="I92">
+        <v>-0.5541156076854941</v>
+      </c>
+      <c r="J92">
+        <v>0.2708159301862554</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.04618825015194185</v>
+        <v>0.01709272311964432</v>
       </c>
       <c r="C93">
-        <v>-0.358604781753644</v>
+        <v>-0.4049024534606899</v>
       </c>
       <c r="D93">
-        <v>-0.06160295269788133</v>
+        <v>-0.04356386141132385</v>
       </c>
       <c r="E93">
-        <v>0.06452648803038538</v>
+        <v>-0.0315000729944143</v>
       </c>
       <c r="F93">
-        <v>0.002984776443486103</v>
+        <v>-0.02563469146820499</v>
       </c>
       <c r="G93">
-        <v>0.02177651267326383</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.04030371272151469</v>
+      </c>
+      <c r="H93">
+        <v>-0.05802632239769495</v>
+      </c>
+      <c r="I93">
+        <v>0.1694200572942473</v>
+      </c>
+      <c r="J93">
+        <v>-0.1526740181922271</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.3138337116861454</v>
+        <v>0.3286019863694404</v>
       </c>
       <c r="C94">
-        <v>0.01053264786914432</v>
+        <v>0.02703578096118285</v>
       </c>
       <c r="D94">
-        <v>0.106190325442991</v>
+        <v>0.1675802672887376</v>
       </c>
       <c r="E94">
-        <v>0.5927242112291025</v>
+        <v>-0.4303437870300857</v>
       </c>
       <c r="F94">
-        <v>0.2942558687637861</v>
+        <v>-0.09626642161816795</v>
       </c>
       <c r="G94">
-        <v>-0.1834520763158742</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1923765712668103</v>
+      </c>
+      <c r="H94">
+        <v>0.06062839290233361</v>
+      </c>
+      <c r="I94">
+        <v>0.4792824479742937</v>
+      </c>
+      <c r="J94">
+        <v>0.5426286057260518</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1837876901040365</v>
+        <v>0.1429798125435416</v>
       </c>
       <c r="C95">
-        <v>-0.04559880972530152</v>
+        <v>0.04935659504457988</v>
       </c>
       <c r="D95">
-        <v>0.02013400499851143</v>
+        <v>0.02766927758309348</v>
       </c>
       <c r="E95">
-        <v>0.1444344923278903</v>
+        <v>0.02191465486042386</v>
       </c>
       <c r="F95">
-        <v>-0.921631768192064</v>
+        <v>-0.08210660488629594</v>
       </c>
       <c r="G95">
-        <v>-0.01808404241630931</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.9210330886939402</v>
+      </c>
+      <c r="H95">
+        <v>-0.095176717129451</v>
+      </c>
+      <c r="I95">
+        <v>0.06271493142116075</v>
+      </c>
+      <c r="J95">
+        <v>0.2374396330918836</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2066980246407573</v>
+        <v>0.2065152692444673</v>
       </c>
       <c r="C98">
-        <v>-0.1558114818894779</v>
+        <v>-0.09839239103096134</v>
       </c>
       <c r="D98">
-        <v>-0.0270390339894609</v>
+        <v>-0.003722769193288441</v>
       </c>
       <c r="E98">
-        <v>-0.09072878915130458</v>
+        <v>0.1557582031241105</v>
       </c>
       <c r="F98">
-        <v>0.01182208483874238</v>
+        <v>-0.08188191776474371</v>
       </c>
       <c r="G98">
-        <v>-0.249311741681947</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.07620999923962753</v>
+      </c>
+      <c r="H98">
+        <v>-0.2960755608764218</v>
+      </c>
+      <c r="I98">
+        <v>-0.1923204587501522</v>
+      </c>
+      <c r="J98">
+        <v>0.1159061523802089</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.02032871438671101</v>
+        <v>0.01327818444245623</v>
       </c>
       <c r="C101">
-        <v>0.01507267567367773</v>
+        <v>0.02836002109508725</v>
       </c>
       <c r="D101">
-        <v>0.01339047270071924</v>
+        <v>0.02150090864715558</v>
       </c>
       <c r="E101">
-        <v>-0.04249180548819702</v>
+        <v>0.0622642434580554</v>
       </c>
       <c r="F101">
-        <v>-0.001497686824187686</v>
+        <v>0.03617447695063043</v>
       </c>
       <c r="G101">
-        <v>0.04005766574759216</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.001801610702549419</v>
+      </c>
+      <c r="H101">
+        <v>0.1230664586221234</v>
+      </c>
+      <c r="I101">
+        <v>0.007833847510233579</v>
+      </c>
+      <c r="J101">
+        <v>0.007147623052082498</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1196795122803783</v>
+        <v>0.1197616091230502</v>
       </c>
       <c r="C102">
-        <v>-0.00284373275502594</v>
+        <v>0.02483231305402923</v>
       </c>
       <c r="D102">
-        <v>0.0521452245906623</v>
+        <v>0.05313136441054107</v>
       </c>
       <c r="E102">
-        <v>0.05791487566813219</v>
+        <v>-0.0786828327968815</v>
       </c>
       <c r="F102">
-        <v>-0.03613421301349694</v>
+        <v>0.005641894773325959</v>
       </c>
       <c r="G102">
-        <v>0.01870049995661596</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.04487858891248285</v>
+      </c>
+      <c r="H102">
+        <v>-0.005375310741245088</v>
+      </c>
+      <c r="I102">
+        <v>0.005790189641741593</v>
+      </c>
+      <c r="J102">
+        <v>-0.06319302004556833</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.01509456463344564</v>
+        <v>0.02135966592067225</v>
       </c>
       <c r="C103">
-        <v>0.002081133780982167</v>
+        <v>0.005918421895015227</v>
       </c>
       <c r="D103">
-        <v>0.01748258953397197</v>
+        <v>0.01735203300683753</v>
       </c>
       <c r="E103">
-        <v>0.02698838544403636</v>
+        <v>-0.01623965864148931</v>
       </c>
       <c r="F103">
-        <v>0.006744033642804501</v>
+        <v>0.0008887106829456899</v>
       </c>
       <c r="G103">
-        <v>-0.009014537105428712</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01488826702634763</v>
+      </c>
+      <c r="H103">
+        <v>0.002288856609830743</v>
+      </c>
+      <c r="I103">
+        <v>0.02377221184192724</v>
+      </c>
+      <c r="J103">
+        <v>-0.002078021164056283</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
